--- a/src/main/resources/excel/A1.xlsx
+++ b/src/main/resources/excel/A1.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 A1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="2 A1" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="3 A1" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="4 A1" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="5 A1" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1148">
   <si>
     <t xml:space="preserve">Sweep</t>
   </si>
@@ -310,25 +311,34 @@
     <t xml:space="preserve">Water the plants</t>
   </si>
   <si>
+    <t xml:space="preserve">Riega las plantas</t>
+  </si>
+  <si>
     <t xml:space="preserve">ˈwɔtər ðə plænts</t>
   </si>
   <si>
     <t xml:space="preserve">She waters the plants in the morning</t>
   </si>
   <si>
+    <t xml:space="preserve">Ella riega las plantas por la mañana</t>
+  </si>
+  <si>
     <t xml:space="preserve">ʃi ˈwɔtərz ðə plænts ɪn ðə ˈmɔrnɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">I water the garden when it's dry</t>
   </si>
   <si>
+    <t xml:space="preserve">Yo riego el jardín cuando está seco</t>
+  </si>
+  <si>
     <t xml:space="preserve">aɪ ˈwɔtər ðə ˈɡɑrdən wɛn ɪts draɪ</t>
   </si>
   <si>
     <t xml:space="preserve">Take out the trash (Sacar la basura)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sake out the trash (Regar las plantas por la mañana)</t>
+    <t xml:space="preserve">Sacar la basura</t>
   </si>
   <si>
     <t xml:space="preserve">teɪk aʊt ðə træʃ (Sacar lɑ basura)</t>
@@ -337,25 +347,34 @@
     <t xml:space="preserve">He takes out the trash every night</t>
   </si>
   <si>
+    <t xml:space="preserve">Él saca la basura todas las noches</t>
+  </si>
+  <si>
     <t xml:space="preserve">hi teɪks aʊt ðə træʃ ˈɛvəri naɪt</t>
   </si>
   <si>
     <t xml:space="preserve">I take the trash out on Mondays</t>
   </si>
   <si>
+    <t xml:space="preserve">Yo saco la basura los lunes</t>
+  </si>
+  <si>
     <t xml:space="preserve">aɪ teɪk ðə træʃ aʊt ɑn ˈmʌndiz</t>
   </si>
   <si>
     <t xml:space="preserve">Did you water the garden this morning?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Regaste el jardín esta mañana?</t>
+  </si>
+  <si>
     <t xml:space="preserve">dɪd ju ˈwɔtər ðə ˈɡɑrdən ðɪs ˈmɔrnɪŋ?</t>
   </si>
   <si>
     <t xml:space="preserve">Swept off</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Regaste el jardín esta mañana?</t>
+    <t xml:space="preserve">Barrió</t>
   </si>
   <si>
     <t xml:space="preserve">swɛpt ɔf</t>
@@ -364,13 +383,16 @@
     <t xml:space="preserve">She swept the crumbs off the table </t>
   </si>
   <si>
+    <t xml:space="preserve">Ella barrió las migas de la mesa</t>
+  </si>
+  <si>
     <t xml:space="preserve">ʃi swɛpt ðə krʌmz ɔf ðə ˈteɪbəl</t>
   </si>
   <si>
     <t xml:space="preserve">I peel the potatoes before cooking them</t>
   </si>
   <si>
-    <t xml:space="preserve">She sweeps the crumbs off the table</t>
+    <t xml:space="preserve">Pelo las patatas antes de cocinarlas</t>
   </si>
   <si>
     <t xml:space="preserve">aɪ pil ðə pəˈteɪtoʊz bɪˈfɔr ˈkʊkɪŋ ðɛm</t>
@@ -379,7 +401,7 @@
     <t xml:space="preserve">She peels an orange for breakfast</t>
   </si>
   <si>
-    <t xml:space="preserve">Yo pelo las patatas antes de cocinarlas</t>
+    <t xml:space="preserve">Ella pela una naranja para el desayuno</t>
   </si>
   <si>
     <t xml:space="preserve">ʃi pilz ən ˈɔrənʤ fɔr ˈbrɛkfəst</t>
@@ -388,13 +410,16 @@
     <t xml:space="preserve">Can you peel the apples for the pie?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Puedes pelar las manzanas para la tarta?</t>
+  </si>
+  <si>
     <t xml:space="preserve">kæn ju pil ði ˈæpəlz fɔr ðə paɪ?</t>
   </si>
   <si>
     <t xml:space="preserve">Do you need to peel these potatoes?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Puedes pelar las manzanas para la tarta?</t>
+    <t xml:space="preserve">¿Necesitas pelar estas patatas?</t>
   </si>
   <si>
     <t xml:space="preserve">du ju nid tu pil ðiz pəˈteɪtoʊz?</t>
@@ -403,7 +428,7 @@
     <t xml:space="preserve">Chop</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Necesitas pelar estas patatas?</t>
+    <t xml:space="preserve">Picar</t>
   </si>
   <si>
     <t xml:space="preserve">ʧɑp</t>
@@ -412,13 +437,16 @@
     <t xml:space="preserve">He chops onions for the salad</t>
   </si>
   <si>
+    <t xml:space="preserve">Él pica cebollas para la ensalada</t>
+  </si>
+  <si>
     <t xml:space="preserve">hi ʧɑps ˈʌnjənz fɔr ðə ˈsæləd</t>
   </si>
   <si>
     <t xml:space="preserve">We chop carrots for the soup</t>
   </si>
   <si>
-    <t xml:space="preserve">Él pica cebollas para la ensalada</t>
+    <t xml:space="preserve">Nosotros picamos zanahorias para la sopa</t>
   </si>
   <si>
     <t xml:space="preserve">wi ʧɑp ˈkærəts fɔr ðə sup</t>
@@ -427,7 +455,7 @@
     <t xml:space="preserve">Should I chop the onions for the sauce?</t>
   </si>
   <si>
-    <t xml:space="preserve">Nosotros picamos zanahorias para la sopa</t>
+    <t xml:space="preserve">¿Debo picar las cebollas para la salsa?</t>
   </si>
   <si>
     <t xml:space="preserve">ʃʊd aɪ ʧɑp ði ˈʌnjənz fɔr ðə sɔs?</t>
@@ -436,7 +464,7 @@
     <t xml:space="preserve">Could you chop some garlic for the pasta?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Debo picar las cebollas para la salsa?</t>
+    <t xml:space="preserve">¿Podrías picar un poco de ajo para la pasta?</t>
   </si>
   <si>
     <t xml:space="preserve">kʊd ju ʧɑp sʌm ˈɡɑrlɪk fɔr ðə ˈpɑstə?</t>
@@ -445,7 +473,7 @@
     <t xml:space="preserve">Cut</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Podrías picar un poco de ajo para la pasta?</t>
+    <t xml:space="preserve">Cortar</t>
   </si>
   <si>
     <t xml:space="preserve">kʌt</t>
@@ -454,13 +482,16 @@
     <t xml:space="preserve">I cut the bread into slices</t>
   </si>
   <si>
+    <t xml:space="preserve">Corto el pan en rebanadas</t>
+  </si>
+  <si>
     <t xml:space="preserve">aɪ kʌt ðə brɛd ˈɪntu ˈslaɪsəz</t>
   </si>
   <si>
     <t xml:space="preserve">She cuts the cake into pieces</t>
   </si>
   <si>
-    <t xml:space="preserve">Corto el pan en rebanadas</t>
+    <t xml:space="preserve">Ella corta el pastel en pedazos</t>
   </si>
   <si>
     <t xml:space="preserve">ʃi kʌts ðə keɪk ˈɪntu ˈpisəz</t>
@@ -469,7 +500,7 @@
     <t xml:space="preserve">Can I cut the bread into slices?</t>
   </si>
   <si>
-    <t xml:space="preserve">She cuts the cake in pieces</t>
+    <t xml:space="preserve">¿Puedo cortar el pan en rebanadas?</t>
   </si>
   <si>
     <t xml:space="preserve">kæn aɪ kʌt ðə brɛd ˈɪntu ˈslaɪsəz?</t>
@@ -478,7 +509,7 @@
     <t xml:space="preserve">Where should I cut this cake?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Puedo cortar el pan en rebanadas?</t>
+    <t xml:space="preserve">¿Dónde debo cortar este pastel?</t>
   </si>
   <si>
     <t xml:space="preserve">wɛr ʃʊd aɪ kʌt ðɪs keɪk?</t>
@@ -487,7 +518,7 @@
     <t xml:space="preserve">Empty</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Dónde debo cortar este pastel?</t>
+    <t xml:space="preserve">Vacío</t>
   </si>
   <si>
     <t xml:space="preserve">ˈɛmpti</t>
@@ -496,13 +527,16 @@
     <t xml:space="preserve">I empty the trash bin when it's full</t>
   </si>
   <si>
+    <t xml:space="preserve">Vacío el bote de basura cuando está lleno</t>
+  </si>
+  <si>
     <t xml:space="preserve">aɪ ˈɛmpti ðə træʃ bɪn wɛn ɪts fʊl</t>
   </si>
   <si>
     <t xml:space="preserve">He empties the box on the table</t>
   </si>
   <si>
-    <t xml:space="preserve">Vacío el cubo de basura cuando está lleno</t>
+    <t xml:space="preserve">Él vacía la caja en la mesa</t>
   </si>
   <si>
     <t xml:space="preserve">hi ˈɛmptiz ðə bɑks ɑn ðə ˈteɪbəl</t>
@@ -511,7 +545,7 @@
     <t xml:space="preserve">When do we need to empty the trash?</t>
   </si>
   <si>
-    <t xml:space="preserve">Él vacía la caja sobre la mesa</t>
+    <t xml:space="preserve">¿Cuándo tenemos que vaciar la basura?</t>
   </si>
   <si>
     <t xml:space="preserve">wɛn du wi nid tu ˈɛmpti ðə træʃ?</t>
@@ -520,7 +554,7 @@
     <t xml:space="preserve">Can you help me empty this box?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Cuándo tenemos que vaciar la basura?</t>
+    <t xml:space="preserve">¿Puedes ayudarme a vaciar esta caja?</t>
   </si>
   <si>
     <t xml:space="preserve">kæn ju hɛlp mi ˈɛmpti ðɪs bɑks?</t>
@@ -529,7 +563,7 @@
     <t xml:space="preserve">Slice</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Puedes ayudarme a vaciar esta caja? Rebanar</t>
+    <t xml:space="preserve">Rebanada</t>
   </si>
   <si>
     <t xml:space="preserve">slaɪs</t>
@@ -538,7 +572,7 @@
     <t xml:space="preserve">She slices tomatoes for sandwiches</t>
   </si>
   <si>
-    <t xml:space="preserve">Ella corta tomates para los sándwiches</t>
+    <t xml:space="preserve">Ella corta tomates para sándwiches</t>
   </si>
   <si>
     <t xml:space="preserve">ʃi ˈslaɪsəz təˈmeɪtoʊz fɔr ˈsændwɪʧɪz</t>
@@ -574,7 +608,7 @@
     <t xml:space="preserve">Dice</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortar en dados</t>
+    <t xml:space="preserve">Corta en dados</t>
   </si>
   <si>
     <t xml:space="preserve">daɪs</t>
@@ -628,7 +662,7 @@
     <t xml:space="preserve">I grate cheese for the pasta</t>
   </si>
   <si>
-    <t xml:space="preserve">Yo rallo queso para la pasta</t>
+    <t xml:space="preserve">Rallo queso para la pasta</t>
   </si>
   <si>
     <t xml:space="preserve">aɪ ɡreɪt ʧiz fɔr ðə ˈpɑstə</t>
@@ -664,7 +698,7 @@
     <t xml:space="preserve">Mash</t>
   </si>
   <si>
-    <t xml:space="preserve">Hacer puré</t>
+    <t xml:space="preserve">Tritura</t>
   </si>
   <si>
     <t xml:space="preserve">mæʃ</t>
@@ -700,7 +734,7 @@
     <t xml:space="preserve">Should I mash these bananas for the smoothie?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Debería hacer puré de estos plátanos para el batido?</t>
+    <t xml:space="preserve">¿Debería machacar estos plátanos para preparar el batido?</t>
   </si>
   <si>
     <t xml:space="preserve">ʃʊd aɪ mæʃ ðiz bəˈnænəz fɔr ðə smoothie?</t>
@@ -709,7 +743,7 @@
     <t xml:space="preserve">Stir</t>
   </si>
   <si>
-    <t xml:space="preserve">Revolver</t>
+    <t xml:space="preserve">Revuelva</t>
   </si>
   <si>
     <t xml:space="preserve">stɜr</t>
@@ -727,7 +761,7 @@
     <t xml:space="preserve">I stir the coffee after adding sugar</t>
   </si>
   <si>
-    <t xml:space="preserve">Revuelvo el café después de agregar azúcar</t>
+    <t xml:space="preserve">Yo revuelvo el café después de agregar azúcar</t>
   </si>
   <si>
     <t xml:space="preserve">aɪ stɜr ðə ˈkɑfi ˈæftər ˈædɪŋ ˈʃʊɡər</t>
@@ -736,7 +770,7 @@
     <t xml:space="preserve">Can you stir the soup for a few minutes?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Puedes revolver la sopa durante unos minutos?</t>
+    <t xml:space="preserve">¿Puedes revolver la sopa por unos minutos?</t>
   </si>
   <si>
     <t xml:space="preserve">kæn ju stɜr ðə sup fɔr ə fju ˈmɪnəts?</t>
@@ -745,7 +779,7 @@
     <t xml:space="preserve">Do you need help stirring the batter?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Necesitas ayuda para revolver la masa? Untar</t>
+    <t xml:space="preserve">¿Necesitas ayuda para revolver la masa?</t>
   </si>
   <si>
     <t xml:space="preserve">du ju nid hɛlp ˈstɜrɪŋ ðə ˈbætər?</t>
@@ -754,141 +788,144 @@
     <t xml:space="preserve">Spread</t>
   </si>
   <si>
+    <t xml:space="preserve">Untar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprɛd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I spread butter on my toast</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unto mantequilla en mi tostada</t>
   </si>
   <si>
-    <t xml:space="preserve">sprɛd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I spread butter on my toast</t>
+    <t xml:space="preserve">aɪ sprɛd ˈbʌtər ɑn maɪ toʊst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She spreads jam on her bread</t>
   </si>
   <si>
     <t xml:space="preserve">Ella unta mermelada en su pan</t>
   </si>
   <si>
-    <t xml:space="preserve">aɪ sprɛd ˈbʌtər ɑn maɪ toʊst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She spreads jam on her bread</t>
+    <t xml:space="preserve">ʃi sprɛdz ʤæm ɑn hɜr brɛd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you spread the butter on the toast?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Puedes untar la mantequilla en la tostada?</t>
   </si>
   <si>
-    <t xml:space="preserve">ʃi sprɛdz ʤæm ɑn hɜr brɛd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you spread the butter on the toast?</t>
+    <t xml:space="preserve">kæn ju sprɛd ðə ˈbʌtər ɑn ðə toʊst?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who will spread the cream cheese on the bagels?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Quién untará el queso crema en los bagels?</t>
   </si>
   <si>
-    <t xml:space="preserve">kæn ju sprɛd ðə ˈbʌtər ɑn ðə toʊst?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who will spread the cream cheese on the bagels?</t>
+    <t xml:space="preserve">hu wɪl sprɛd ðə krim ʧiz ɑn ðə ˈbeɪɡəlz?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn right</t>
   </si>
   <si>
     <t xml:space="preserve">Gira a la derecha</t>
   </si>
   <si>
-    <t xml:space="preserve">hu wɪl sprɛd ðə krim ʧiz ɑn ðə ˈbeɪɡəlz?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn right</t>
+    <t xml:space="preserve">tɜrn raɪt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn right at the corner.</t>
   </si>
   <si>
     <t xml:space="preserve">Gira a la derecha en la esquina.</t>
   </si>
   <si>
-    <t xml:space="preserve">tɜrn raɪt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn right at the corner.</t>
+    <t xml:space="preserve">tɜrn raɪt æt ðə ˈkɔrnər.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you turn right here?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Puedes girar a la derecha aquí?</t>
   </si>
   <si>
-    <t xml:space="preserve">tɜrn raɪt æt ðə ˈkɔrnər.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you turn right here?</t>
+    <t xml:space="preserve">kæn ju tɜrn raɪt hir?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn let</t>
   </si>
   <si>
     <t xml:space="preserve">Gira a la izquierda</t>
   </si>
   <si>
-    <t xml:space="preserve">kæn ju tɜrn raɪt hir?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn let</t>
+    <t xml:space="preserve">tɜrn lɛt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn left at the traffic light.</t>
   </si>
   <si>
     <t xml:space="preserve">Gira a la izquierda en el semáforo.</t>
   </si>
   <si>
-    <t xml:space="preserve">tɜrn lɛt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn left at the traffic light.</t>
+    <t xml:space="preserve">tɜrn lɛft æt ðə ˈtræfɪk laɪt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please turn left at the next street.</t>
   </si>
   <si>
     <t xml:space="preserve">Por favor, gira a la izquierda en la siguiente calle.</t>
   </si>
   <si>
-    <t xml:space="preserve">tɜrn lɛft æt ðə ˈtræfɪk laɪt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please turn left at the next street.</t>
+    <t xml:space="preserve">pliz tɜrn lɛft æt ðə nɛkst strit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step Forwar</t>
   </si>
   <si>
     <t xml:space="preserve">Dar un paso adelante</t>
   </si>
   <si>
-    <t xml:space="preserve">pliz tɜrn lɛft æt ðə nɛkst strit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step Forwar</t>
+    <t xml:space="preserve">stɛp Forwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a step forward, please.</t>
   </si>
   <si>
     <t xml:space="preserve">Da un paso adelante, por favor.</t>
   </si>
   <si>
-    <t xml:space="preserve">stɛp Forwar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a step forward, please.</t>
+    <t xml:space="preserve">teɪk ə stɛp ˈfɔrwərd, pliz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you take a step forward?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Puedes dar un paso adelante?</t>
   </si>
   <si>
-    <t xml:space="preserve">teɪk ə stɛp ˈfɔrwərd, pliz.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you take a step forward?</t>
+    <t xml:space="preserve">kæn ju teɪk ə stɛp ˈfɔrwərd?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step Back</t>
   </si>
   <si>
     <t xml:space="preserve">Dar un paso atrás</t>
   </si>
   <si>
-    <t xml:space="preserve">kæn ju teɪk ə stɛp ˈfɔrwərd?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step Back</t>
+    <t xml:space="preserve">stɛp bæk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a step back.</t>
   </si>
   <si>
     <t xml:space="preserve">Da un paso atrás.</t>
   </si>
   <si>
-    <t xml:space="preserve">stɛp bæk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a step back.</t>
-  </si>
-  <si>
     <t xml:space="preserve">teɪk ə stɛp bæk.</t>
   </si>
   <si>
@@ -2909,6 +2946,528 @@
   </si>
   <si>
     <t xml:space="preserve">ˈfɪltər ˈdeɪtə ɪn ˈkɑləm ɛn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday, I completed the integration of the new module we discussed last week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer completé la integración del nuevo módulo que discutimos la semana pasada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈjɛstərˌdeɪ, aɪ kəmˈplitɪd ði ˌɪntəˈɡreɪʃən ʌv ðə nu ˈmɑʤul wi dɪˈskʌst læst wik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I finished fixing the bugs we identified during the last sprint review.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminé de corregir los errores que identificamos durante la última revisión del sprint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ˈfɪnɪʃt ˈfɪksɪŋ ðə bʌɡz wi aɪˈdɛntəˌfaɪd ˈdʊrɪŋ ðə læst sprɪnt ˌriˈvju.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was working on the technical documentation based on the latest changes requested by the client.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estuve trabajando en la documentación técnica en función de los últimos cambios solicitados por el cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ wʌz ˈwɜrkɪŋ ɑn ðə ˈtɛknɪkəl ˌdɑkjəmɛnˈteɪʃən beɪst ɑn ðə ˈleɪtəst ˈʧeɪnʤəz rɪˈkwɛstɪd baɪ ðə ˈklaɪənt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday, I spent time optimizing the system performance as agreed in our last meeting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer, dediqué tiempo a optimizar el rendimiento del sistema según lo acordado en nuestra última reunión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈjɛstərˌdeɪ, aɪ spɛnt taɪm ˈɑptəˌmaɪzɪŋ ðə ˈsɪstəm pərˈfɔrməns æz əˈɡrid ɪn ˈaʊər læst ˈmitɪŋ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I focused on updating the unit tests to reflect changes in our API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me concentré en actualizar las pruebas unitarias para reflejar los cambios en nuestra API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ˈfoʊkəst ɑn əpˈdeɪtɪŋ ðə ˈjunət tɛsts tu rəˈflɛkt ˈʧeɪnʤəz ɪn ˈaʊər eɪ-pi-aɪ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I reviewed the code sent by the frontend team to ensure compatibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisé el código enviado por el equipo de frontend para garantizar la compatibilidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ riˈvjud ðə koʊd sɛnt baɪ ðə frontend tim tu ɛnˈʃʊr kəmˌpætəˈbɪləti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I finalized the setup of the testing environment we needed for the new project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalicé la configuración del entorno de prueba que necesitábamos para el nuevo proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ˈfaɪnəˌlaɪzd ðə ˈsɛˌtʌp ʌv ðə ˈtɛstɪŋ ɪnˈvaɪrənmənt wi ˈnidɪd fɔr ðə nu ˈprɑʤɛkt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday, I was resolving the connection issues that arose after the latest update.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer, estuve resolviendo los problemas de conexión que surgieron después de la última actualización.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈjɛstərˌdeɪ, aɪ wʌz riˈzɑlvɪŋ ðə kəˈnɛkʃən ˈɪʃuz ðæt əˈroʊz ˈæftər ðə ˈleɪtəst əpˈdeɪt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I implemented the suggestions the PO made during our last discussion about the interface design.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementé las sugerencias que hizo el PO durante nuestra última discusión sobre el diseño de la interfaz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ˈɪmpləˌmɛntəd ðə səɡˈʤɛsʧənz ðə poʊ meɪd ˈdʊrɪŋ ˈaʊər læst dɪˈskʌʃən əˈbaʊt ði ˈɪntərˌfeɪs dɪˈzaɪn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I consolidated all customer feedback to adjust our roadmap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidé todos los comentarios de los clientes para ajustar nuestra hoja de ruta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ kənˈsɑləˌdeɪtəd ɔl ˈkʌstəmər ˈfidˌbæk tu əˈʤʌst ˈaʊər roadmap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday, I was conducting tests on the architectural adjustments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer estuve realizando pruebas sobre los ajustes arquitectónicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈjɛstərˌdeɪ, aɪ wʌz kənˈdʌktɪŋ tɛsts ɑn ði ˌɑrkəˈtɛkʧərəl əˈʤʌstmənts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday, the entire team was at the planning meeting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer, todo el equipo estuvo en la reunión de planificación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈjɛstərˌdeɪ, ði ɪnˈtaɪər tim wʌz æt ðə ˈplænɪŋ ˈmitɪŋ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday, I was performing the review for my colleague Carlos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer estuve realizando la revisión para mi colega Carlos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈjɛstərˌdeɪ, aɪ wʌz pərˈfɔrmɪŋ ðə ˌriˈvju fɔr maɪ ˈkɑliɡ ˈkɑrloʊs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We also met with the quality assurance team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">También nos reunimos con el equipo de control de calidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wi ˈɔlsoʊ mɛt wɪð ðə ˈkwɑləti əˈʃʊrəns tim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday, a bug was reported to me regarding the calculations we need to make.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer me informaron de un error relacionado con los cálculos que debemos realizar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈjɛstərˌdeɪ, ə bʌɡ wʌz ˌriˈpɔrtəd tu mi rəˈɡɑrdɪŋ ðə ˌkælkjəˈleɪʃənz wi nid tu meɪk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday, I updated the project documentation based on the latest feedback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer actualicé la documentación del proyecto en función de los últimos comentarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈjɛstərˌdeɪ, aɪ əpˈdeɪtɪd ðə ˈprɑʤɛkt ˌdɑkjəmɛnˈteɪʃən beɪst ɑn ðə ˈleɪtəst ˈfidˌbæk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We discussed the new feature requirements with the product owner yesterday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer analizamos los nuevos requisitos de las funciones con el propietario del producto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wi dɪˈskʌst ðə nu ˈfiʧər rɪˈkwaɪrmənts wɪð ðə ˈprɑdəkt ˈoʊnər ˈjɛstərˌdeɪ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I spent yesterday troubleshooting the login issues reported by users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer pasé el día solucionando los problemas de inicio de sesión informados por los usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ spɛnt ˈjɛstərˌdeɪ troubleshooting ðə login ˈɪʃuz ˌriˈpɔrtəd baɪ ˈjuzərz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday, we finalized the deployment schedule for the next release.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer finalizamos el cronograma de implementación para la próxima versión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈjɛstərˌdeɪ, wi ˈfaɪnəˌlaɪzd ðə dɪˈplɔɪmənt ˈskɛʤʊl fɔr ðə nɛkst riˈlis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I led a training session for the new developers yesterday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer dirigí una sesión de capacitación para los nuevos desarrolladores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ lɛd ə ˈtreɪnɪŋ ˈsɛʃən fɔr ðə nu dɪˈvɛləpərz ˈjɛstərˌdeɪ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm going to do the same right now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voy a hacer lo mismo ahora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ˈɡoʊɪŋ tu du ðə seɪm raɪt naʊ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now do the same for the subtraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahora haz lo mismo con la resta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naʊ du ðə seɪm fɔr ðə səbˈtrækʃən.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain to me how I can teach someone to add.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explícame cómo puedo enseñarle a alguien a sumar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪkˈspleɪn tu mi haʊ aɪ kæn tiʧ ˈsʌmˌwʌn tu æd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let me know when you are ready.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avísame cuando estés listo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lɛt mi noʊ wɛn ju ɑr ˈrɛdi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let me know when you are viewing my screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avísame cuando estés viendo mi pantalla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lɛt mi noʊ wɛn ju ɑr ˈvjuɪŋ maɪ skrin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me a summary of what you did this week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazme un resumen de lo que hiciste esta semana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɡɪv mi ə ˈsʌməri ʌv wɑt ju dɪd ðɪs wik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What were you asked about the most in the meeting?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué fue lo que más te preguntaron en la reunión?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɑt wɜr ju æskt əˈbaʊt ðə moʊst ɪn ðə ˈmitɪŋ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'll proceed with the same steps as last time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procederé con los mismos pasos que la última vez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪl prəˈsid wɪð ðə seɪm stɛps æz læst taɪm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now apply the same logic to the division problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahora aplica la misma lógica al problema de división.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naʊ əˈplaɪ ðə seɪm ˈlɑʤɪk tu ðə dɪˈvɪʒən ˈprɑbləm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you guide me through teaching multiplication?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedes guiarme en la enseñanza de la multiplicación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn ju ɡaɪd mi θru ˈtiʧɪŋ ˌmʌltəpləˈkeɪʃən?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notify me once the documents are uploaded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avísame cuando se hayan cargado los documentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈnoʊtəˌfaɪ mi wʌns ðə ˈdɑkjəmənts ɑr ʌpˈloʊdɪd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert me when you start the presentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avísame cuando comiences la presentación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">əˈlɜrt mi wɛn ju stɑrt ðə ˌprɛzənˈteɪʃən.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you outline the progress on the project this week?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedes resumir el progreso del proyecto esta semana?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn ju ˈaʊtˌlaɪn ðə ˈprɑˌɡrɛs ɑn ðə ˈprɑʤɛkt ðɪs wik?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What feedback did you receive most frequently at the workshop?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué comentarios recibiste con más frecuencia en el taller?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɑt ˈfidˌbæk dɪd ju rəˈsiv moʊst ˈfrikwəntli æt ðə ˈwɜrkˌʃɑp?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could you explain that to me again?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Podrías explicarme eso nuevamente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kʊd ju ɪkˈspleɪn ðæt tu mi əˈɡɛn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sure, I’ll explain it again now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claro, lo explicaré nuevamente ahora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʃʊr, aɪl ɪkˈspleɪn ɪt əˈɡɛn naʊ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you go over that one more time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedes repasarlo una vez más?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn ju ɡoʊ ˈoʊvər ðæt wʌn mɔr taɪm?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course, let’s go through it once more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por supuesto, repasémoslo una vez más.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʌv kɔrs, lɛts ɡoʊ θru ɪt wʌns mɔr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could we go over that topic again? It wasn’t clear to me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Podríamos repasar ese tema nuevamente? No me quedó claro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kʊd wi ɡoʊ ˈoʊvər ðæt ˈtɑpɪk əˈɡɛn? ɪt ˈwɑzənt klɪr tu mi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely, let's review it again to clarify.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por supuesto, repasémoslo nuevamente para aclararlo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˌæbsəˈlutli, lɛts ˌriˈvju ɪt əˈɡɛn tu ˈklɛrəˌfaɪ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we revisit that topic? I didn’t quite understand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Podemos volver a tratar ese tema? No entendí bien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn wi riˈvɪzɪt ðæt ˈtɑpɪk? aɪ ˈdɪdənt kwaɪt ˌʌndərˈstænd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitely, let’s take another look at it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitivamente, vamos a darle otro vistazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈdɛfənətli, lɛts teɪk əˈnʌðər lʊk æt ɪt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I split the screen like you are doing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo puedo dividir la pantalla como lo estás haciendo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haʊ kæn aɪ splɪt ðə skrin laɪk ju ɑr ˈduɪŋ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ll show you how to do it right now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te mostraré cómo hacerlo ahora mismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪl ʃoʊ ju haʊ tu du ɪt raɪt naʊ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you show me how to divide the screen as you have?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedes mostrarme cómo dividir la pantalla como lo has hecho?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn ju ʃoʊ mi haʊ tu dɪˈvaɪd ðə skrin æz ju hæv?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I can demonstrate it for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, te lo puedo demostrar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪ kæn ˈdɛmənˌstreɪt ɪt fɔr ju.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm going to the folder named 'Fondo Sura', and in it, we should have another one called...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voy a la carpeta llamada 'Fondo Sura', y en ella, deberíamos tener otra llamada...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ˈɡoʊɪŋ tu ðə ˈfoʊldər neɪmd 'Fondo ˈsʊrə, ænd ɪn ɪt, wi ʃʊd hæv əˈnʌðər wʌn kɔld...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will allow us to return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos permitirá regresar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪt wɪl əˈlaʊ ʌs tu rɪˈtɜrn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will help us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos ayudará.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪt wɪl hɛlp ʌs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me an example of how it should be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dame un ejemplo de cómo debería ser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɡɪv mi ən ɪɡˈzæmpəl ʌv haʊ ɪt ʃʊd bi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How it should be set up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cómo se debe configurar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haʊ ɪt ʃʊd bi sɛt ʌp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What it should return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qué debe devolver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɑt ɪt ʃʊd rɪˈtɜrn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why it generates an error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por qué genera un error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waɪ ɪt ˈʤɛnəˌreɪts ən ˈɛrər.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This shouldn't handle the response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esto no debería manejar la respuesta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɪs ˈʃʊdənt ˈhændəl ðə rɪˈspɑns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I implement this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo puedo implementar esto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haʊ kæn aɪ ˈɪmpləmənt ðɪs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once we have the response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una vez que tengamos la respuesta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wʌns wi hæv ðə rɪˈspɑns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will use this tool to communicate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usaremos esta herramienta para comunicarnos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wi wɪl juz ðɪs tul tu kəmˈjunəˌkeɪt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work in parallel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajar en paralelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɜrk ɪn ˈpɛrəˌlɛl.</t>
   </si>
 </sst>
 </file>
@@ -3131,15 +3690,15 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,7 +3708,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3160,10 +3719,10 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3174,10 +3733,10 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3188,10 +3747,10 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3202,7 +3761,7 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3213,10 +3772,10 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3227,10 +3786,10 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3241,10 +3800,10 @@
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3255,10 +3814,10 @@
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3269,7 +3828,7 @@
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3280,10 +3839,10 @@
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3294,10 +3853,10 @@
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3308,10 +3867,10 @@
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3322,7 +3881,7 @@
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3333,10 +3892,10 @@
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3347,10 +3906,10 @@
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3361,10 +3920,10 @@
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3375,10 +3934,10 @@
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3389,7 +3948,7 @@
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3400,10 +3959,10 @@
       <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3414,10 +3973,10 @@
       <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3428,7 +3987,7 @@
       <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3439,10 +3998,10 @@
       <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3453,10 +4012,10 @@
       <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3467,7 +4026,7 @@
       <c r="B25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3478,10 +4037,10 @@
       <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3492,10 +4051,10 @@
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3506,10 +4065,10 @@
       <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3520,10 +4079,10 @@
       <c r="B29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3534,10 +4093,10 @@
       <c r="B30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3548,10 +4107,10 @@
       <c r="B31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3560,945 +4119,945 @@
         <v>94</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="0" t="s">
         <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F49" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F53" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="F54" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="F56" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="F57" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F58" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F59" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="F61" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F62" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="F63" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F64" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F66" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="F67" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="F69" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>199</v>
+        <v>209</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F71" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="F72" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="F73" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="F74" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>214</v>
+        <v>224</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="F76" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="F77" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="F78" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F79" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>229</v>
+        <v>239</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="F81" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="F82" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F83" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="F84" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="F86" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="F87" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="F88" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="F89" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>257</v>
+      <c r="A90" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="F90" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="F91" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F92" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="F93" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="F94" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="F95" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="F96" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="F97" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="F98" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F99" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F100" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F101" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4520,7 +5079,7 @@
   </sheetPr>
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -4528,1508 +5087,1508 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="79.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="F5" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="F6" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="F8" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>318</v>
+        <v>329</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="F10" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="F11" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>330</v>
+        <v>341</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F14" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="F15" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>339</v>
+        <v>350</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="F17" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="F18" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="F19" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="F20" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="F21" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="F22" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F23" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="F24" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="F25" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="F26" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="F27" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="F28" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="F29" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F30" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="F31" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="F32" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="F33" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="F34" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>394</v>
+        <v>405</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="F36" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="F37" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="F38" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="F39" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="F40" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="F41" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="F42" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="F43" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="F44" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="F45" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="F46" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="F47" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="F48" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="F49" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="F50" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="F51" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="F52" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="F53" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="F54" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>454</v>
+        <v>465</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="F56" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="F57" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="F58" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="F59" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="F60" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="F61" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="F62" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="F63" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="F64" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="F65" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="F66" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="F67" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="F68" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="F69" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="F70" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="F71" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="F72" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="F73" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="F74" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>514</v>
+        <v>525</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="F76" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F77" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="F78" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="F79" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="F80" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="F81" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="F82" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="F83" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="F84" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="F85" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="F86" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="F87" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="F88" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="F89" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="F90" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="F91" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="F92" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="F93" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="F94" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>572</v>
+        <v>583</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="F96" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="F97" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="F98" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="F99" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="F100" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="F101" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="F102" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="F103" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="F104" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="F105" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="F106" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="F107" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="F108" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="F109" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6051,7 +6610,7 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F103" activeCellId="0" sqref="F103"/>
     </sheetView>
   </sheetViews>
@@ -6059,1377 +6618,1377 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="79.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="97.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="97.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>590</v>
+        <v>601</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="F2" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="F3" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="F4" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="F5" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="F6" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="F7" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="F8" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="F9" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="F10" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="F11" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="F12" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="F13" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="F14" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="F15" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="F16" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="F17" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="F18" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="F19" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>647</v>
+        <v>658</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="F21" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="F22" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="F23" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="F24" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="F25" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="F26" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="F27" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="F28" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="F29" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="F30" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="F31" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="F32" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="F33" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="F34" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="F35" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="F36" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="F37" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="F38" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="F39" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>707</v>
+        <v>718</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="F41" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="F42" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="F43" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="F44" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="F45" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="F46" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="F47" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="F48" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="F49" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="F50" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="F51" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="F52" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="F53" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="F54" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="F55" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="F56" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="F57" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="F58" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="F59" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>766</v>
+        <v>777</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="F61" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="F62" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="F63" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="F64" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="F65" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="F66" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>787</v>
-      </c>
-      <c r="F67" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="F68" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="F69" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>796</v>
-      </c>
-      <c r="F70" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="F71" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="F72" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="F73" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="F74" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="F75" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="F76" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="F77" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="F78" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="F79" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>825</v>
+        <v>836</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="F81" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="F82" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="F83" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="F84" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="F85" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="F86" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>845</v>
-      </c>
-      <c r="F87" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="F88" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="F89" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="F90" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="F91" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="F92" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="F93" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="F94" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>869</v>
-      </c>
-      <c r="F95" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>871</v>
-      </c>
-      <c r="F96" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>874</v>
-      </c>
-      <c r="F97" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>877</v>
-      </c>
-      <c r="F98" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>880</v>
-      </c>
-      <c r="F99" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7451,386 +8010,1207 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="79.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>883</v>
+        <v>894</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="F2" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>889</v>
-      </c>
-      <c r="F3" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="F4" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>895</v>
-      </c>
-      <c r="F5" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>898</v>
-      </c>
-      <c r="F6" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="F7" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="F8" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>907</v>
-      </c>
-      <c r="F9" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>910</v>
-      </c>
-      <c r="F10" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>913</v>
-      </c>
-      <c r="F11" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="F12" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>919</v>
-      </c>
-      <c r="F13" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>922</v>
+        <v>933</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>925</v>
-      </c>
-      <c r="F15" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>928</v>
-      </c>
-      <c r="F16" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>931</v>
-      </c>
-      <c r="F17" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>934</v>
-      </c>
-      <c r="F18" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="F19" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>940</v>
-      </c>
-      <c r="F20" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>943</v>
-      </c>
-      <c r="F21" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>946</v>
-      </c>
-      <c r="F22" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="F23" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="F24" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="F25" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>958</v>
-      </c>
-      <c r="F26" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>960</v>
+        <v>972</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F58"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="83.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="126.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="91.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>1053</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>961</v>
-      </c>
-      <c r="F27" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/excel/A1.xlsx
+++ b/src/main/resources/excel/A1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 A1" sheetId="1" state="visible" r:id="rId3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1144">
   <si>
     <t xml:space="preserve">Sweep</t>
   </si>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">aɪ ˈwɔtər ðə ˈɡɑrdən wɛn ɪts draɪ</t>
   </si>
   <si>
-    <t xml:space="preserve">Take out the trash (Sacar la basura)</t>
+    <t xml:space="preserve">Take out the trash</t>
   </si>
   <si>
     <t xml:space="preserve">Sacar la basura</t>
@@ -1643,12 +1643,6 @@
     <t xml:space="preserve">kæn ju tɛl mi wɑt taɪm ɪt ɪz?</t>
   </si>
   <si>
-    <t xml:space="preserve">Hora en punto (Exact hour)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈhɔrə ɛn ˈpunˌtoʊ (ɪɡˈzækt ˈaʊər)</t>
-  </si>
-  <si>
     <t xml:space="preserve">It's one o'clock.</t>
   </si>
   <si>
@@ -1667,7 +1661,7 @@
     <t xml:space="preserve">ɪts θri əˈklɑk.</t>
   </si>
   <si>
-    <t xml:space="preserve">It's half past one. (1:30)</t>
+    <t xml:space="preserve">It's half past one.</t>
   </si>
   <si>
     <t xml:space="preserve">Es la una y media. (1:30)</t>
@@ -1676,7 +1670,7 @@
     <t xml:space="preserve">ɪts hæf pæst wʌn. (1:30)</t>
   </si>
   <si>
-    <t xml:space="preserve">It's half past four. (4:30)</t>
+    <t xml:space="preserve">It's half past four.</t>
   </si>
   <si>
     <t xml:space="preserve">Son las cuatro y media. (4:30)</t>
@@ -1685,7 +1679,7 @@
     <t xml:space="preserve">ɪts hæf pæst fɔr. (4:30)</t>
   </si>
   <si>
-    <t xml:space="preserve">It's quarter past two. (2:15)</t>
+    <t xml:space="preserve">It's quarter past two.</t>
   </si>
   <si>
     <t xml:space="preserve">Son las dos y cuarto. (2:15)</t>
@@ -1694,7 +1688,7 @@
     <t xml:space="preserve">ɪts ˈkwɔrtər pæst tu. (2:15)</t>
   </si>
   <si>
-    <t xml:space="preserve">It's quarter past five. (5:15)</t>
+    <t xml:space="preserve">It's quarter past five.</t>
   </si>
   <si>
     <t xml:space="preserve">Son las cinco y cuarto. (5:15)</t>
@@ -1703,7 +1697,7 @@
     <t xml:space="preserve">ɪts ˈkwɔrtər pæst faɪv. (5:15)</t>
   </si>
   <si>
-    <t xml:space="preserve">It's quarter to three. (2:45)</t>
+    <t xml:space="preserve">It's quarter to three.</t>
   </si>
   <si>
     <t xml:space="preserve">Son las tres menos cuarto. (2:45)</t>
@@ -1712,7 +1706,7 @@
     <t xml:space="preserve">ɪts ˈkwɔrtər tu θri. (2:45)</t>
   </si>
   <si>
-    <t xml:space="preserve">It's quarter to six. (5:45)</t>
+    <t xml:space="preserve">It's quarter to six.</t>
   </si>
   <si>
     <t xml:space="preserve">Son las seis menos cuarto. (5:45)</t>
@@ -1721,7 +1715,7 @@
     <t xml:space="preserve">ɪts ˈkwɔrtər tu sɪks. (5:45)</t>
   </si>
   <si>
-    <t xml:space="preserve">It's ten minutes past seven. (7:10)</t>
+    <t xml:space="preserve">It's ten minutes past seven.</t>
   </si>
   <si>
     <t xml:space="preserve">Son las siete y diez. (7:10)</t>
@@ -1730,7 +1724,7 @@
     <t xml:space="preserve">ɪts tɛn ˈmɪnəts pæst ˈsɛvən. (7:10)</t>
   </si>
   <si>
-    <t xml:space="preserve">It's twenty minutes past eight. (8:20)</t>
+    <t xml:space="preserve">It's twenty minutes past eight.</t>
   </si>
   <si>
     <t xml:space="preserve">Son las ocho y veinte. (8:20)</t>
@@ -1739,7 +1733,7 @@
     <t xml:space="preserve">ɪts ˈtwɛnti ˈmɪnəts pæst eɪt. (8:20)</t>
   </si>
   <si>
-    <t xml:space="preserve">It's twenty minutes to nine. (8:40)</t>
+    <t xml:space="preserve">It's twenty minutes to nine.</t>
   </si>
   <si>
     <t xml:space="preserve">Son las nueve menos veinte. (8:40)</t>
@@ -1748,19 +1742,13 @@
     <t xml:space="preserve">ɪts ˈtwɛnti ˈmɪnəts tu naɪn. (8:40)</t>
   </si>
   <si>
-    <t xml:space="preserve">It's five minutes to ten. (9:55)</t>
+    <t xml:space="preserve">It's five minutes to ten.</t>
   </si>
   <si>
     <t xml:space="preserve">Son las diez menos cinco. (9:55)</t>
   </si>
   <si>
     <t xml:space="preserve">ɪts faɪv ˈmɪnəts tu tɛn. (9:55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parte superior derecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pɑrt suˈpɪriər derecha</t>
   </si>
   <si>
     <t xml:space="preserve">Please move the folder to the top right corner.</t>
@@ -3690,8 +3678,8 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5077,10 +5065,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6180,10 +6168,10 @@
         <v>539</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>6</v>
@@ -6191,13 +6179,13 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>6</v>
@@ -6205,13 +6193,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>6</v>
@@ -6219,13 +6207,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>6</v>
@@ -6233,13 +6221,13 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>6</v>
@@ -6247,13 +6235,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>6</v>
@@ -6261,13 +6249,13 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>6</v>
@@ -6275,13 +6263,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>6</v>
@@ -6289,13 +6277,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>6</v>
@@ -6303,13 +6291,13 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>6</v>
@@ -6317,13 +6305,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>6</v>
@@ -6331,13 +6319,13 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>6</v>
@@ -6345,13 +6333,13 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>6</v>
@@ -6359,27 +6347,24 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>6</v>
+        <v>580</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>6</v>
@@ -6387,24 +6372,27 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>6</v>
@@ -6412,13 +6400,13 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>6</v>
@@ -6426,13 +6414,13 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>6</v>
@@ -6440,13 +6428,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>6</v>
@@ -6454,13 +6442,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>6</v>
@@ -6468,13 +6456,13 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>6</v>
@@ -6482,13 +6470,13 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>6</v>
@@ -6496,13 +6484,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>6</v>
@@ -6510,13 +6498,13 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>6</v>
@@ -6524,13 +6512,13 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>6</v>
@@ -6538,13 +6526,13 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>6</v>
@@ -6552,43 +6540,15 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="F109" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6623,24 +6583,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -6648,13 +6608,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -6662,13 +6622,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -6676,13 +6636,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
@@ -6690,13 +6650,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
@@ -6704,13 +6664,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
@@ -6718,13 +6678,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
@@ -6732,13 +6692,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
@@ -6746,13 +6706,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -6760,13 +6720,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
@@ -6774,13 +6734,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
@@ -6788,13 +6748,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
@@ -6802,13 +6762,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -6816,13 +6776,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
@@ -6830,13 +6790,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>6</v>
@@ -6844,13 +6804,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>6</v>
@@ -6858,13 +6818,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -6872,13 +6832,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>6</v>
@@ -6886,24 +6846,24 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>6</v>
@@ -6911,13 +6871,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>6</v>
@@ -6925,13 +6885,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>6</v>
@@ -6939,13 +6899,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>6</v>
@@ -6953,13 +6913,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>6</v>
@@ -6967,13 +6927,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>6</v>
@@ -6981,13 +6941,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>6</v>
@@ -6995,13 +6955,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>6</v>
@@ -7009,13 +6969,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>6</v>
@@ -7023,13 +6983,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>6</v>
@@ -7037,13 +6997,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>6</v>
@@ -7051,13 +7011,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>6</v>
@@ -7065,13 +7025,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>6</v>
@@ -7079,13 +7039,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>6</v>
@@ -7093,13 +7053,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>6</v>
@@ -7107,13 +7067,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>6</v>
@@ -7121,13 +7081,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>6</v>
@@ -7135,13 +7095,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>6</v>
@@ -7149,13 +7109,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>6</v>
@@ -7163,24 +7123,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>6</v>
@@ -7188,13 +7148,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>6</v>
@@ -7202,13 +7162,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>6</v>
@@ -7216,13 +7176,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>6</v>
@@ -7230,13 +7190,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>6</v>
@@ -7244,13 +7204,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -7258,13 +7218,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>6</v>
@@ -7272,13 +7232,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>6</v>
@@ -7286,13 +7246,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>6</v>
@@ -7300,13 +7260,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>6</v>
@@ -7314,13 +7274,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>6</v>
@@ -7328,13 +7288,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>6</v>
@@ -7342,13 +7302,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>6</v>
@@ -7356,13 +7316,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>6</v>
@@ -7370,13 +7330,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>6</v>
@@ -7384,13 +7344,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>6</v>
@@ -7398,13 +7358,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>6</v>
@@ -7412,13 +7372,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>6</v>
@@ -7426,13 +7386,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>6</v>
@@ -7440,24 +7400,24 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>6</v>
@@ -7465,13 +7425,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>6</v>
@@ -7479,13 +7439,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>6</v>
@@ -7493,13 +7453,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>6</v>
@@ -7507,13 +7467,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>6</v>
@@ -7521,13 +7481,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>6</v>
@@ -7535,13 +7495,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>6</v>
@@ -7549,13 +7509,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>6</v>
@@ -7563,13 +7523,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>6</v>
@@ -7577,13 +7537,13 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>6</v>
@@ -7591,13 +7551,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>6</v>
@@ -7605,13 +7565,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>6</v>
@@ -7619,13 +7579,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>6</v>
@@ -7633,13 +7593,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>6</v>
@@ -7647,13 +7607,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>6</v>
@@ -7661,13 +7621,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>6</v>
@@ -7675,13 +7635,13 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>6</v>
@@ -7689,13 +7649,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>6</v>
@@ -7703,13 +7663,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>6</v>
@@ -7717,24 +7677,24 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>6</v>
@@ -7742,13 +7702,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>6</v>
@@ -7756,13 +7716,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>6</v>
@@ -7770,13 +7730,13 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>6</v>
@@ -7784,13 +7744,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>6</v>
@@ -7798,13 +7758,13 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>6</v>
@@ -7812,13 +7772,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>6</v>
@@ -7826,13 +7786,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>6</v>
@@ -7840,13 +7800,13 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>6</v>
@@ -7854,13 +7814,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>6</v>
@@ -7868,13 +7828,13 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>6</v>
@@ -7882,13 +7842,13 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>6</v>
@@ -7896,13 +7856,13 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>6</v>
@@ -7910,13 +7870,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>6</v>
@@ -7924,13 +7884,13 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>6</v>
@@ -7938,13 +7898,13 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>6</v>
@@ -7952,13 +7912,13 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>6</v>
@@ -7966,13 +7926,13 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>6</v>
@@ -7980,13 +7940,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>6</v>
@@ -8023,24 +7983,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -8048,13 +8008,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -8062,13 +8022,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -8076,13 +8036,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
@@ -8090,13 +8050,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
@@ -8104,13 +8064,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
@@ -8118,13 +8078,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
@@ -8132,13 +8092,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
@@ -8146,13 +8106,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -8160,13 +8120,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
@@ -8174,13 +8134,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
@@ -8188,13 +8148,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
@@ -8202,24 +8162,24 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
@@ -8227,13 +8187,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>6</v>
@@ -8241,13 +8201,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>6</v>
@@ -8255,13 +8215,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -8269,13 +8229,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>6</v>
@@ -8283,13 +8243,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>6</v>
@@ -8297,13 +8257,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>6</v>
@@ -8311,13 +8271,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>6</v>
@@ -8325,13 +8285,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>6</v>
@@ -8339,13 +8299,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>6</v>
@@ -8353,13 +8313,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>6</v>
@@ -8367,13 +8327,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>6</v>
@@ -8381,13 +8341,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>6</v>
@@ -8411,804 +8371,804 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="83.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="126.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="91.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="83.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="126.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="91.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="F31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="F38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="F42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="F47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="F48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="F49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="F50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="F51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="F52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="F55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="F56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="F57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>1147</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>6</v>

--- a/src/main/resources/excel/A1.xlsx
+++ b/src/main/resources/excel/A1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 A1" sheetId="1" state="visible" r:id="rId3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1142">
   <si>
     <t xml:space="preserve">Sweep</t>
   </si>
@@ -2289,12 +2289,6 @@
   </si>
   <si>
     <t xml:space="preserve">ˈnævəˌɡeɪt tu ði əˈkaʊnt ˈsɛtɪŋz ænd prɛs ðə saɪn aʊt ˈbʌtən.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerrar una botella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerrar ˈunə botella</t>
   </si>
   <si>
     <t xml:space="preserve">Twist the cap right to close.</t>
@@ -5067,7 +5061,7 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -6568,10 +6562,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F103" activeCellId="0" sqref="F103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7319,10 +7313,10 @@
         <v>755</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>6</v>
@@ -7330,13 +7324,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>6</v>
@@ -7344,13 +7338,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>6</v>
@@ -7358,13 +7352,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>6</v>
@@ -7372,13 +7366,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>6</v>
@@ -7386,38 +7380,38 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>6</v>
+        <v>772</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>6</v>
@@ -7425,13 +7419,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>6</v>
@@ -7439,13 +7433,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>6</v>
@@ -7453,13 +7447,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>6</v>
@@ -7467,13 +7461,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>6</v>
@@ -7481,13 +7475,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>6</v>
@@ -7495,13 +7489,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>6</v>
@@ -7509,13 +7503,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>6</v>
@@ -7523,13 +7517,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>6</v>
@@ -7537,13 +7531,13 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>6</v>
@@ -7551,13 +7545,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>6</v>
@@ -7565,13 +7559,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>6</v>
@@ -7579,13 +7573,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>6</v>
@@ -7593,13 +7587,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>6</v>
@@ -7607,13 +7601,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>6</v>
@@ -7621,13 +7615,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>6</v>
@@ -7635,13 +7629,13 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>6</v>
@@ -7649,7 +7643,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>827</v>
@@ -7666,29 +7660,29 @@
         <v>829</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>6</v>
+        <v>831</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>835</v>
@@ -7705,10 +7699,10 @@
         <v>837</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>6</v>
@@ -7716,13 +7710,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>6</v>
@@ -7730,13 +7724,13 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>6</v>
@@ -7744,13 +7738,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>6</v>
@@ -7758,13 +7752,13 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>6</v>
@@ -7772,13 +7766,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>6</v>
@@ -7786,13 +7780,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>6</v>
@@ -7800,13 +7794,13 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>6</v>
@@ -7814,13 +7808,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>6</v>
@@ -7828,13 +7822,13 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>6</v>
@@ -7842,13 +7836,13 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>6</v>
@@ -7856,13 +7850,13 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>6</v>
@@ -7870,13 +7864,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>6</v>
@@ -7884,7 +7878,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>876</v>
@@ -7901,10 +7895,10 @@
         <v>878</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>6</v>
@@ -7912,13 +7906,13 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>6</v>
@@ -7926,29 +7920,15 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="F99" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7983,24 +7963,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -8008,13 +7988,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>897</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -8022,13 +8002,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -8036,13 +8016,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
@@ -8050,13 +8030,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
@@ -8064,13 +8044,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
@@ -8078,13 +8058,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
@@ -8092,13 +8072,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
@@ -8106,13 +8086,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>918</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -8120,13 +8100,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>921</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
@@ -8134,13 +8114,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>924</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
@@ -8148,13 +8128,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>927</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
@@ -8162,24 +8142,24 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>933</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
@@ -8187,13 +8167,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>6</v>
@@ -8201,13 +8181,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>939</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>6</v>
@@ -8215,13 +8195,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -8229,13 +8209,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>6</v>
@@ -8243,13 +8223,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>948</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>6</v>
@@ -8257,13 +8237,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>951</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>6</v>
@@ -8271,13 +8251,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>954</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>6</v>
@@ -8285,13 +8265,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>6</v>
@@ -8299,13 +8279,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>6</v>
@@ -8313,13 +8293,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>6</v>
@@ -8327,13 +8307,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>6</v>
@@ -8341,13 +8321,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>6</v>
@@ -8384,25 +8364,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>970</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>972</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>975</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -8410,13 +8390,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -8424,13 +8404,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -8438,13 +8418,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>984</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
@@ -8452,13 +8432,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
@@ -8466,13 +8446,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
@@ -8480,13 +8460,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
@@ -8494,13 +8474,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
@@ -8508,13 +8488,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -8522,13 +8502,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1002</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
@@ -8536,13 +8516,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1005</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
@@ -8550,13 +8530,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
@@ -8564,13 +8544,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1011</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -8578,13 +8558,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1014</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
@@ -8592,13 +8572,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1017</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>6</v>
@@ -8606,13 +8586,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>6</v>
@@ -8620,13 +8600,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -8634,13 +8614,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1026</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>6</v>
@@ -8648,13 +8628,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1029</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>6</v>
@@ -8662,13 +8642,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1032</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>6</v>
@@ -8676,13 +8656,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1035</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>6</v>
@@ -8690,13 +8670,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1038</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>6</v>
@@ -8704,13 +8684,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1041</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>6</v>
@@ -8718,13 +8698,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>6</v>
@@ -8732,13 +8712,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1047</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>6</v>
@@ -8746,25 +8726,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1050</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1053</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>6</v>
@@ -8772,13 +8752,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>6</v>
@@ -8786,25 +8766,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1059</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1062</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>6</v>
@@ -8812,13 +8792,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1065</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>6</v>
@@ -8826,25 +8806,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1071</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>6</v>
@@ -8852,25 +8832,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1074</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1077</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>6</v>
@@ -8878,25 +8858,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1080</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>6</v>
@@ -8904,25 +8884,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1089</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>6</v>
@@ -8930,25 +8910,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1092</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1095</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>6</v>
@@ -8956,25 +8936,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>1101</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>6</v>
@@ -8982,25 +8962,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>1104</v>
       </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -9008,13 +8988,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1110</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>6</v>
@@ -9022,13 +9002,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>6</v>
@@ -9036,13 +9016,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1116</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>6</v>
@@ -9050,13 +9030,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1119</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>6</v>
@@ -9064,13 +9044,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1122</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>6</v>
@@ -9078,13 +9058,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1125</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>6</v>
@@ -9092,13 +9072,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1128</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>6</v>
@@ -9106,13 +9086,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>6</v>
@@ -9120,13 +9100,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1134</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>6</v>
@@ -9134,13 +9114,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>6</v>
@@ -9148,13 +9128,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>6</v>
@@ -9162,13 +9142,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1143</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>6</v>
